--- a/SpMVC_EMS_2/00.테이블명세 양식.xlsx
+++ b/SpMVC_EMS_2/00.테이블명세 양식.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="게시판 테이블 명세" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="106">
   <si>
     <t>열 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -3307,7 +3307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B4" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="B4" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <selection activeCell="E5" sqref="E5:E13"/>
     </sheetView>
   </sheetViews>
@@ -4379,12 +4379,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C3:L3"/>
     <mergeCell ref="D1:G2"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="K1:L1"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="C3:L3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4395,12 +4395,87 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+      <selection sqref="A1:B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
